--- a/6/1/1/1/Derivados posiciones netas 2021 - Diaria.xlsx
+++ b/6/1/1/1/Derivados posiciones netas 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>Serie</t>
   </si>
@@ -470,6 +470,72 @@
   </si>
   <si>
     <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>31-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
   </si>
 </sst>
 </file>
@@ -827,7 +893,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D149"/>
+  <dimension ref="A1:D171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2919,6 +2985,314 @@
         <v>-8031</v>
       </c>
     </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>152</v>
+      </c>
+      <c r="B150">
+        <v>13208</v>
+      </c>
+      <c r="C150">
+        <v>21450</v>
+      </c>
+      <c r="D150">
+        <v>-8242</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>153</v>
+      </c>
+      <c r="B151">
+        <v>13265</v>
+      </c>
+      <c r="C151">
+        <v>21622</v>
+      </c>
+      <c r="D151">
+        <v>-8357</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>154</v>
+      </c>
+      <c r="B152">
+        <v>13793</v>
+      </c>
+      <c r="C152">
+        <v>21919</v>
+      </c>
+      <c r="D152">
+        <v>-8126</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>155</v>
+      </c>
+      <c r="B153">
+        <v>13315</v>
+      </c>
+      <c r="C153">
+        <v>21444</v>
+      </c>
+      <c r="D153">
+        <v>-8129</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>156</v>
+      </c>
+      <c r="B154">
+        <v>13570</v>
+      </c>
+      <c r="C154">
+        <v>21554</v>
+      </c>
+      <c r="D154">
+        <v>-7984</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>157</v>
+      </c>
+      <c r="B155">
+        <v>13517</v>
+      </c>
+      <c r="C155">
+        <v>21531</v>
+      </c>
+      <c r="D155">
+        <v>-8014</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>158</v>
+      </c>
+      <c r="B156">
+        <v>13705</v>
+      </c>
+      <c r="C156">
+        <v>21318</v>
+      </c>
+      <c r="D156">
+        <v>-7614</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>159</v>
+      </c>
+      <c r="B157">
+        <v>13485</v>
+      </c>
+      <c r="C157">
+        <v>21214</v>
+      </c>
+      <c r="D157">
+        <v>-7729</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>160</v>
+      </c>
+      <c r="B158">
+        <v>13325</v>
+      </c>
+      <c r="C158">
+        <v>21040</v>
+      </c>
+      <c r="D158">
+        <v>-7715</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>161</v>
+      </c>
+      <c r="B159">
+        <v>13354</v>
+      </c>
+      <c r="C159">
+        <v>20966</v>
+      </c>
+      <c r="D159">
+        <v>-7612</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>162</v>
+      </c>
+      <c r="B160">
+        <v>13613</v>
+      </c>
+      <c r="C160">
+        <v>21030</v>
+      </c>
+      <c r="D160">
+        <v>-7417</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>163</v>
+      </c>
+      <c r="B161">
+        <v>13460</v>
+      </c>
+      <c r="C161">
+        <v>20886</v>
+      </c>
+      <c r="D161">
+        <v>-7426</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>164</v>
+      </c>
+      <c r="B162">
+        <v>13440</v>
+      </c>
+      <c r="C162">
+        <v>20987</v>
+      </c>
+      <c r="D162">
+        <v>-7547</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>165</v>
+      </c>
+      <c r="B163">
+        <v>13567</v>
+      </c>
+      <c r="C163">
+        <v>20925</v>
+      </c>
+      <c r="D163">
+        <v>-7358</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>166</v>
+      </c>
+      <c r="B164">
+        <v>13423</v>
+      </c>
+      <c r="C164">
+        <v>20814</v>
+      </c>
+      <c r="D164">
+        <v>-7391</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>167</v>
+      </c>
+      <c r="B165">
+        <v>13330</v>
+      </c>
+      <c r="C165">
+        <v>20542</v>
+      </c>
+      <c r="D165">
+        <v>-7212</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>168</v>
+      </c>
+      <c r="B166">
+        <v>13178</v>
+      </c>
+      <c r="C166">
+        <v>20263</v>
+      </c>
+      <c r="D166">
+        <v>-7085</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>169</v>
+      </c>
+      <c r="B167">
+        <v>13538</v>
+      </c>
+      <c r="C167">
+        <v>20305</v>
+      </c>
+      <c r="D167">
+        <v>-6767</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>170</v>
+      </c>
+      <c r="B168">
+        <v>13679</v>
+      </c>
+      <c r="C168">
+        <v>19961</v>
+      </c>
+      <c r="D168">
+        <v>-6283</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>171</v>
+      </c>
+      <c r="B169">
+        <v>14126</v>
+      </c>
+      <c r="C169">
+        <v>19616</v>
+      </c>
+      <c r="D169">
+        <v>-5491</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>172</v>
+      </c>
+      <c r="B170">
+        <v>14511</v>
+      </c>
+      <c r="C170">
+        <v>19618</v>
+      </c>
+      <c r="D170">
+        <v>-5107</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>173</v>
+      </c>
+      <c r="B171">
+        <v>15083</v>
+      </c>
+      <c r="C171">
+        <v>19716</v>
+      </c>
+      <c r="D171">
+        <v>-4633</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/1/Derivados posiciones netas 2021 - Diaria.xlsx
+++ b/6/1/1/1/Derivados posiciones netas 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t>Serie</t>
   </si>
@@ -536,6 +536,12 @@
   </si>
   <si>
     <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>06-09-2021</t>
+  </si>
+  <si>
+    <t>07-09-2021</t>
   </si>
 </sst>
 </file>
@@ -893,7 +899,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D171"/>
+  <dimension ref="A1:D173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3293,6 +3299,34 @@
         <v>-4633</v>
       </c>
     </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>174</v>
+      </c>
+      <c r="B172">
+        <v>14786</v>
+      </c>
+      <c r="C172">
+        <v>19558</v>
+      </c>
+      <c r="D172">
+        <v>-4772</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>175</v>
+      </c>
+      <c r="B173">
+        <v>14722</v>
+      </c>
+      <c r="C173">
+        <v>19558</v>
+      </c>
+      <c r="D173">
+        <v>-4835</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/1/Derivados posiciones netas 2021 - Diaria.xlsx
+++ b/6/1/1/1/Derivados posiciones netas 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <si>
     <t>Serie</t>
   </si>
@@ -542,6 +542,54 @@
   </si>
   <si>
     <t>07-09-2021</t>
+  </si>
+  <si>
+    <t>08-09-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
+  </si>
+  <si>
+    <t>10-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
+  </si>
+  <si>
+    <t>21-09-2021</t>
+  </si>
+  <si>
+    <t>22-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>24-09-2021</t>
+  </si>
+  <si>
+    <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>29-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
   </si>
 </sst>
 </file>
@@ -899,7 +947,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D173"/>
+  <dimension ref="A1:D189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3327,6 +3375,230 @@
         <v>-4835</v>
       </c>
     </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>176</v>
+      </c>
+      <c r="B174">
+        <v>14575</v>
+      </c>
+      <c r="C174">
+        <v>19545</v>
+      </c>
+      <c r="D174">
+        <v>-4970</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>177</v>
+      </c>
+      <c r="B175">
+        <v>14530</v>
+      </c>
+      <c r="C175">
+        <v>19836</v>
+      </c>
+      <c r="D175">
+        <v>-5306</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>178</v>
+      </c>
+      <c r="B176">
+        <v>14577</v>
+      </c>
+      <c r="C176">
+        <v>19847</v>
+      </c>
+      <c r="D176">
+        <v>-5270</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>179</v>
+      </c>
+      <c r="B177">
+        <v>14531</v>
+      </c>
+      <c r="C177">
+        <v>19990</v>
+      </c>
+      <c r="D177">
+        <v>-5458</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>180</v>
+      </c>
+      <c r="B178">
+        <v>14731</v>
+      </c>
+      <c r="C178">
+        <v>19814</v>
+      </c>
+      <c r="D178">
+        <v>-5084</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>181</v>
+      </c>
+      <c r="B179">
+        <v>14719</v>
+      </c>
+      <c r="C179">
+        <v>19591</v>
+      </c>
+      <c r="D179">
+        <v>-4872</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>182</v>
+      </c>
+      <c r="B180">
+        <v>14891</v>
+      </c>
+      <c r="C180">
+        <v>19655</v>
+      </c>
+      <c r="D180">
+        <v>-4764</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>183</v>
+      </c>
+      <c r="B181">
+        <v>14729</v>
+      </c>
+      <c r="C181">
+        <v>19467</v>
+      </c>
+      <c r="D181">
+        <v>-4738</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>184</v>
+      </c>
+      <c r="B182">
+        <v>14441</v>
+      </c>
+      <c r="C182">
+        <v>19384</v>
+      </c>
+      <c r="D182">
+        <v>-4943</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>185</v>
+      </c>
+      <c r="B183">
+        <v>14736</v>
+      </c>
+      <c r="C183">
+        <v>19962</v>
+      </c>
+      <c r="D183">
+        <v>-5225</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>186</v>
+      </c>
+      <c r="B184">
+        <v>14423</v>
+      </c>
+      <c r="C184">
+        <v>19995</v>
+      </c>
+      <c r="D184">
+        <v>-5572</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>187</v>
+      </c>
+      <c r="B185">
+        <v>14401</v>
+      </c>
+      <c r="C185">
+        <v>19837</v>
+      </c>
+      <c r="D185">
+        <v>-5436</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>188</v>
+      </c>
+      <c r="B186">
+        <v>14384</v>
+      </c>
+      <c r="C186">
+        <v>19950</v>
+      </c>
+      <c r="D186">
+        <v>-5566</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>189</v>
+      </c>
+      <c r="B187">
+        <v>13421</v>
+      </c>
+      <c r="C187">
+        <v>19481</v>
+      </c>
+      <c r="D187">
+        <v>-6060</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>190</v>
+      </c>
+      <c r="B188">
+        <v>13503</v>
+      </c>
+      <c r="C188">
+        <v>19680</v>
+      </c>
+      <c r="D188">
+        <v>-6177</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>191</v>
+      </c>
+      <c r="B189">
+        <v>13927</v>
+      </c>
+      <c r="C189">
+        <v>19624</v>
+      </c>
+      <c r="D189">
+        <v>-5698</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/1/Derivados posiciones netas 2021 - Diaria.xlsx
+++ b/6/1/1/1/Derivados posiciones netas 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
   <si>
     <t>Serie</t>
   </si>
@@ -590,6 +590,12 @@
   </si>
   <si>
     <t>30-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
+  </si>
+  <si>
+    <t>04-10-2021</t>
   </si>
 </sst>
 </file>
@@ -947,7 +953,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D189"/>
+  <dimension ref="A1:D191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3599,6 +3605,34 @@
         <v>-5698</v>
       </c>
     </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>192</v>
+      </c>
+      <c r="B190">
+        <v>13589</v>
+      </c>
+      <c r="C190">
+        <v>19727</v>
+      </c>
+      <c r="D190">
+        <v>-6138</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>193</v>
+      </c>
+      <c r="B191">
+        <v>13277</v>
+      </c>
+      <c r="C191">
+        <v>19816</v>
+      </c>
+      <c r="D191">
+        <v>-6539</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/1/Derivados posiciones netas 2021 - Diaria.xlsx
+++ b/6/1/1/1/Derivados posiciones netas 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
   <si>
     <t>Serie</t>
   </si>
@@ -596,6 +596,15 @@
   </si>
   <si>
     <t>04-10-2021</t>
+  </si>
+  <si>
+    <t>05-10-2021</t>
+  </si>
+  <si>
+    <t>06-10-2021</t>
+  </si>
+  <si>
+    <t>07-10-2021</t>
   </si>
 </sst>
 </file>
@@ -953,7 +962,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D191"/>
+  <dimension ref="A1:D194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3633,6 +3642,48 @@
         <v>-6539</v>
       </c>
     </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>194</v>
+      </c>
+      <c r="B192">
+        <v>13530</v>
+      </c>
+      <c r="C192">
+        <v>20274</v>
+      </c>
+      <c r="D192">
+        <v>-6744</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>195</v>
+      </c>
+      <c r="B193">
+        <v>14066</v>
+      </c>
+      <c r="C193">
+        <v>20565</v>
+      </c>
+      <c r="D193">
+        <v>-6500</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>196</v>
+      </c>
+      <c r="B194">
+        <v>13786</v>
+      </c>
+      <c r="C194">
+        <v>20503</v>
+      </c>
+      <c r="D194">
+        <v>-6717</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/1/Derivados posiciones netas 2021 - Diaria.xlsx
+++ b/6/1/1/1/Derivados posiciones netas 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t>Serie</t>
   </si>
@@ -605,6 +605,18 @@
   </si>
   <si>
     <t>07-10-2021</t>
+  </si>
+  <si>
+    <t>08-10-2021</t>
+  </si>
+  <si>
+    <t>12-10-2021</t>
+  </si>
+  <si>
+    <t>13-10-2021</t>
+  </si>
+  <si>
+    <t>14-10-2021</t>
   </si>
 </sst>
 </file>
@@ -962,7 +974,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D194"/>
+  <dimension ref="A1:D198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3684,6 +3696,62 @@
         <v>-6717</v>
       </c>
     </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>197</v>
+      </c>
+      <c r="B195">
+        <v>14055</v>
+      </c>
+      <c r="C195">
+        <v>20474</v>
+      </c>
+      <c r="D195">
+        <v>-6419</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>198</v>
+      </c>
+      <c r="B196">
+        <v>14046</v>
+      </c>
+      <c r="C196">
+        <v>20354</v>
+      </c>
+      <c r="D196">
+        <v>-6308</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>199</v>
+      </c>
+      <c r="B197">
+        <v>14497</v>
+      </c>
+      <c r="C197">
+        <v>20470</v>
+      </c>
+      <c r="D197">
+        <v>-5973</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>200</v>
+      </c>
+      <c r="B198">
+        <v>14815</v>
+      </c>
+      <c r="C198">
+        <v>20263</v>
+      </c>
+      <c r="D198">
+        <v>-5448</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/1/Derivados posiciones netas 2021 - Diaria.xlsx
+++ b/6/1/1/1/Derivados posiciones netas 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
   <si>
     <t>Serie</t>
   </si>
@@ -617,6 +617,33 @@
   </si>
   <si>
     <t>14-10-2021</t>
+  </si>
+  <si>
+    <t>15-10-2021</t>
+  </si>
+  <si>
+    <t>18-10-2021</t>
+  </si>
+  <si>
+    <t>19-10-2021</t>
+  </si>
+  <si>
+    <t>20-10-2021</t>
+  </si>
+  <si>
+    <t>21-10-2021</t>
+  </si>
+  <si>
+    <t>22-10-2021</t>
+  </si>
+  <si>
+    <t>25-10-2021</t>
+  </si>
+  <si>
+    <t>26-10-2021</t>
+  </si>
+  <si>
+    <t>27-10-2021</t>
   </si>
 </sst>
 </file>
@@ -974,7 +1001,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D198"/>
+  <dimension ref="A1:D207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3752,6 +3779,132 @@
         <v>-5448</v>
       </c>
     </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>201</v>
+      </c>
+      <c r="B199">
+        <v>14937</v>
+      </c>
+      <c r="C199">
+        <v>20316</v>
+      </c>
+      <c r="D199">
+        <v>-5378</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>202</v>
+      </c>
+      <c r="B200">
+        <v>14750</v>
+      </c>
+      <c r="C200">
+        <v>20234</v>
+      </c>
+      <c r="D200">
+        <v>-5484</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>203</v>
+      </c>
+      <c r="B201">
+        <v>14556</v>
+      </c>
+      <c r="C201">
+        <v>19486</v>
+      </c>
+      <c r="D201">
+        <v>-4930</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>204</v>
+      </c>
+      <c r="B202">
+        <v>14371</v>
+      </c>
+      <c r="C202">
+        <v>18876</v>
+      </c>
+      <c r="D202">
+        <v>-4505</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>205</v>
+      </c>
+      <c r="B203">
+        <v>13848</v>
+      </c>
+      <c r="C203">
+        <v>18588</v>
+      </c>
+      <c r="D203">
+        <v>-4740</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>206</v>
+      </c>
+      <c r="B204">
+        <v>14233</v>
+      </c>
+      <c r="C204">
+        <v>18551</v>
+      </c>
+      <c r="D204">
+        <v>-4318</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>207</v>
+      </c>
+      <c r="B205">
+        <v>14195</v>
+      </c>
+      <c r="C205">
+        <v>18336</v>
+      </c>
+      <c r="D205">
+        <v>-4141</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>208</v>
+      </c>
+      <c r="B206">
+        <v>14518</v>
+      </c>
+      <c r="C206">
+        <v>18057</v>
+      </c>
+      <c r="D206">
+        <v>-3539</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>209</v>
+      </c>
+      <c r="B207">
+        <v>14461</v>
+      </c>
+      <c r="C207">
+        <v>17676</v>
+      </c>
+      <c r="D207">
+        <v>-3215</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/1/Derivados posiciones netas 2021 - Diaria.xlsx
+++ b/6/1/1/1/Derivados posiciones netas 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
   <si>
     <t>Serie</t>
   </si>
@@ -644,6 +644,9 @@
   </si>
   <si>
     <t>27-10-2021</t>
+  </si>
+  <si>
+    <t>28-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1004,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D207"/>
+  <dimension ref="A1:D208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3905,6 +3908,20 @@
         <v>-3215</v>
       </c>
     </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>210</v>
+      </c>
+      <c r="B208">
+        <v>14210</v>
+      </c>
+      <c r="C208">
+        <v>17454</v>
+      </c>
+      <c r="D208">
+        <v>-3244</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/1/Derivados posiciones netas 2021 - Diaria.xlsx
+++ b/6/1/1/1/Derivados posiciones netas 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
   <si>
     <t>Serie</t>
   </si>
@@ -647,6 +647,12 @@
   </si>
   <si>
     <t>28-10-2021</t>
+  </si>
+  <si>
+    <t>29-10-2021</t>
+  </si>
+  <si>
+    <t>02-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1010,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D208"/>
+  <dimension ref="A1:D210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3922,6 +3928,34 @@
         <v>-3244</v>
       </c>
     </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>211</v>
+      </c>
+      <c r="B209">
+        <v>14367</v>
+      </c>
+      <c r="C209">
+        <v>17652</v>
+      </c>
+      <c r="D209">
+        <v>-3286</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>212</v>
+      </c>
+      <c r="B210">
+        <v>14598</v>
+      </c>
+      <c r="C210">
+        <v>17968</v>
+      </c>
+      <c r="D210">
+        <v>-3370</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/1/Derivados posiciones netas 2021 - Diaria.xlsx
+++ b/6/1/1/1/Derivados posiciones netas 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <si>
     <t>Serie</t>
   </si>
@@ -653,6 +653,9 @@
   </si>
   <si>
     <t>02-11-2021</t>
+  </si>
+  <si>
+    <t>03-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1013,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D210"/>
+  <dimension ref="A1:D211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3956,6 +3959,20 @@
         <v>-3370</v>
       </c>
     </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>213</v>
+      </c>
+      <c r="B211">
+        <v>14651</v>
+      </c>
+      <c r="C211">
+        <v>17862</v>
+      </c>
+      <c r="D211">
+        <v>-3211</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/1/Derivados posiciones netas 2021 - Diaria.xlsx
+++ b/6/1/1/1/Derivados posiciones netas 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <t>Serie</t>
   </si>
@@ -656,6 +656,9 @@
   </si>
   <si>
     <t>03-11-2021</t>
+  </si>
+  <si>
+    <t>04-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1016,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D211"/>
+  <dimension ref="A1:D212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3973,6 +3976,20 @@
         <v>-3211</v>
       </c>
     </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>214</v>
+      </c>
+      <c r="B212">
+        <v>14802</v>
+      </c>
+      <c r="C212">
+        <v>18033</v>
+      </c>
+      <c r="D212">
+        <v>-3231</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/1/Derivados posiciones netas 2021 - Diaria.xlsx
+++ b/6/1/1/1/Derivados posiciones netas 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
   <si>
     <t>Serie</t>
   </si>
@@ -659,6 +659,12 @@
   </si>
   <si>
     <t>04-11-2021</t>
+  </si>
+  <si>
+    <t>05-11-2021</t>
+  </si>
+  <si>
+    <t>08-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1022,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D212"/>
+  <dimension ref="A1:D214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3990,6 +3996,34 @@
         <v>-3231</v>
       </c>
     </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>215</v>
+      </c>
+      <c r="B213">
+        <v>14996</v>
+      </c>
+      <c r="C213">
+        <v>17817</v>
+      </c>
+      <c r="D213">
+        <v>-2821</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>216</v>
+      </c>
+      <c r="B214">
+        <v>15890</v>
+      </c>
+      <c r="C214">
+        <v>17796</v>
+      </c>
+      <c r="D214">
+        <v>-1905</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
